--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2190359.283363926</v>
+        <v>-2192927.483643293</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15554401.42319888</v>
+        <v>15554401.42319887</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.938361348404</v>
+        <v>355.8127254646764</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722035</v>
+        <v>338.3517755722034</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218789</v>
+        <v>45.18056946011871</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0092538734576</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546494</v>
+        <v>384.0006094546493</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885164</v>
+        <v>267.6866481885163</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.6558135741218</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937173</v>
+        <v>82.26664558937168</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0740557600979</v>
+        <v>224.0740557600978</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713308</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W11" t="n">
         <v>322.3198525186089</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572495</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831332</v>
+        <v>152.9108639831331</v>
       </c>
       <c r="C13" t="n">
         <v>140.3257048998237</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155167</v>
+        <v>117.8338987155166</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103399</v>
+        <v>69.43130421103393</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01103647124318</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326378</v>
+        <v>162.8479091326377</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6278330773651</v>
+        <v>192.627833077365</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068088</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2165271250239</v>
+        <v>225.2165271250238</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6018821377869</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7885391902331</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.7778868676144</v>
+        <v>91.66146109111321</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8127254646764</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722035</v>
+        <v>338.3517755722034</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218789</v>
+        <v>327.7619254218788</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734577</v>
+        <v>355.0092538734576</v>
       </c>
       <c r="F14" t="n">
         <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546494</v>
+        <v>384.0006094546493</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412185</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>43.22973373789571</v>
+        <v>82.26664558937166</v>
       </c>
       <c r="T14" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600979</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713308</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572495</v>
+        <v>338.2150662077999</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.796216012154714</v>
+        <v>152.9108639831331</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194083</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5128464477651</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F16" t="n">
         <v>118.4999318241271</v>
@@ -1780,10 +1780,10 @@
         <v>139.1046920602241</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155167</v>
+        <v>117.8338987155166</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103399</v>
+        <v>69.43130421103393</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124323</v>
+        <v>62.01103647124317</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8479091326378</v>
+        <v>162.8479091326377</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6278330773651</v>
+        <v>192.627833077365</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068088</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2165271250239</v>
+        <v>137.5647134444562</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6018821377869</v>
+        <v>259.6018821377868</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7885391902331</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>291.3766389536109</v>
       </c>
       <c r="D17" t="n">
-        <v>223.0929609533871</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E17" t="n">
         <v>308.0341172548651</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077918</v>
+        <v>35.29150897077919</v>
       </c>
       <c r="T17" t="n">
         <v>130.0217173222235</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415053</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527382</v>
+        <v>97.91638104432725</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
         <v>295.8348478610724</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123118</v>
+        <v>93.35056828123119</v>
       </c>
       <c r="D19" t="n">
-        <v>74.7192202008157</v>
+        <v>74.71922020081571</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917251</v>
+        <v>72.53770982917253</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553459</v>
+        <v>71.5247952055346</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163157</v>
+        <v>92.12955544163158</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692412</v>
+        <v>70.85876209692414</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244144</v>
+        <v>22.45616759244145</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265067</v>
+        <v>77.45110783445585</v>
       </c>
       <c r="S19" t="n">
         <v>115.8727725140452</v>
@@ -2056,7 +2056,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>274.7307933700213</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V19" t="n">
         <v>178.2413905064313</v>
@@ -2096,7 +2096,7 @@
         <v>337.0254728360568</v>
       </c>
       <c r="H20" t="n">
-        <v>17.69468514223188</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077918</v>
+        <v>35.29150897077919</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415053</v>
+        <v>97.91638104432771</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>275.3447159000164</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C22" t="n">
-        <v>155.7657762630362</v>
+        <v>93.35056828123119</v>
       </c>
       <c r="D22" t="n">
-        <v>74.7192202008157</v>
+        <v>74.71922020081571</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917251</v>
+        <v>72.53770982917253</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553459</v>
+        <v>71.5247952055346</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163157</v>
+        <v>92.12955544163158</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692412</v>
+        <v>70.85876209692414</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244144</v>
+        <v>22.45616759244145</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265067</v>
+        <v>15.03589985265069</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140452</v>
@@ -2305,7 +2305,7 @@
         <v>151.8134025716405</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6884005346981</v>
+        <v>207.1036085165031</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077918</v>
+        <v>35.29150897077919</v>
       </c>
       <c r="T23" t="n">
         <v>130.0217173222235</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123118</v>
+        <v>93.35056828123119</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7192202008157</v>
+        <v>74.71922020081571</v>
       </c>
       <c r="E25" t="n">
-        <v>134.9529178109777</v>
+        <v>72.53770982917253</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553459</v>
+        <v>71.5247952055346</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163157</v>
+        <v>92.12955544163158</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692412</v>
+        <v>70.85876209692414</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244144</v>
+        <v>22.45616759244145</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265067</v>
+        <v>15.03589985265069</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
@@ -2536,7 +2536,7 @@
         <v>178.2413905064313</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6267455191943</v>
+        <v>275.0419535009995</v>
       </c>
       <c r="X25" t="n">
         <v>151.8134025716405</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958334</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.2126251695846</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,7 +4034,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1781.417053987896</v>
+        <v>1485.587540798918</v>
       </c>
       <c r="C11" t="n">
-        <v>1439.647583712943</v>
+        <v>1143.818070523965</v>
       </c>
       <c r="D11" t="n">
-        <v>1108.574931771651</v>
+        <v>1098.18113167536</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.574931771651</v>
+        <v>739.5859257425749</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7820736475024</v>
+        <v>739.5859257425749</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9026701579576</v>
+        <v>351.7065222530301</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>81.31596852725602</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801726</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.508199801726</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.170769741021</v>
+        <v>2837.386068790701</v>
       </c>
       <c r="V11" t="n">
-        <v>2712.300929062909</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W11" t="n">
-        <v>2386.725320458253</v>
+        <v>2207.940619507934</v>
       </c>
       <c r="X11" t="n">
-        <v>2386.725320458253</v>
+        <v>2207.940619507934</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.7790351479</v>
+        <v>1844.994334197581</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064548</v>
@@ -5118,46 +5118,46 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>657.6187141197852</v>
+        <v>781.5654529511447</v>
       </c>
       <c r="C13" t="n">
-        <v>515.8755778573369</v>
+        <v>639.8223166886966</v>
       </c>
       <c r="D13" t="n">
-        <v>515.8755778573369</v>
+        <v>516.8987239418195</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8755778573369</v>
+        <v>396.1786770248851</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1786770248852</v>
+        <v>396.1786770248851</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6688870650629</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6447469483794</v>
+        <v>136.6447469483793</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.286653915935</v>
+        <v>138.2866539159351</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016275</v>
+        <v>368.9257419016276</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869397</v>
+        <v>712.1374453869398</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.006677765985</v>
+        <v>1451.006677765986</v>
       </c>
       <c r="O13" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.24758719369</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.509788383021</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.509788383021</v>
+        <v>2077.872377806008</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.016950875306</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.443382110291</v>
+        <v>1718.805971533278</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.533561901393</v>
+        <v>1456.896151324381</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.042120360965</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.817996989463</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="X13" t="n">
-        <v>829.021492756904</v>
+        <v>1028.608205551394</v>
       </c>
       <c r="Y13" t="n">
-        <v>812.0741322845662</v>
+        <v>936.0208711159257</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1884.42555828998</v>
+        <v>1869.621706194907</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.656088015027</v>
+        <v>1527.852235919954</v>
       </c>
       <c r="D14" t="n">
-        <v>1211.583436073735</v>
+        <v>1196.779583978662</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9882301409498</v>
+        <v>838.1843780458771</v>
       </c>
       <c r="F14" t="n">
-        <v>469.1953720168009</v>
+        <v>454.3915199217282</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31596852725602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31596852725602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,10 +5288,10 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3281.939423894125</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="T14" t="n">
-        <v>3103.154722943806</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="U14" t="n">
-        <v>2876.8172928831</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="V14" t="n">
-        <v>2572.947452204989</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="W14" t="n">
-        <v>2247.371843600333</v>
+        <v>2916.93259119707</v>
       </c>
       <c r="X14" t="n">
-        <v>2247.371843600333</v>
+        <v>2570.659879601449</v>
       </c>
       <c r="Y14" t="n">
-        <v>1884.42555828998</v>
+        <v>2229.02849959357</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064539</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.5192175211483</v>
+        <v>901.2623537835962</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5192175211483</v>
+        <v>759.519217521148</v>
       </c>
       <c r="D16" t="n">
-        <v>636.5956247742713</v>
+        <v>636.5956247742711</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8755778573369</v>
+        <v>515.8755778573367</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1786770248852</v>
+        <v>396.1786770248851</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6688870650629</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6447469483794</v>
+        <v>136.6447469483793</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.286653915935</v>
+        <v>138.2866539159352</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016275</v>
+        <v>368.9257419016277</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869397</v>
+        <v>712.13744538694</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946396023304</v>
+        <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.006677765985</v>
+        <v>1451.006677765986</v>
       </c>
       <c r="O16" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.24758719369</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.509788383021</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="R16" t="n">
         <v>2077.872377806008</v>
@@ -5464,22 +5464,22 @@
         <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.805971533277</v>
+        <v>1718.805971533278</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.89615132438</v>
+        <v>1456.896151324381</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.404709783951</v>
+        <v>1317.941895319879</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1805864124494</v>
+        <v>1055.717771948377</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3840821798905</v>
+        <v>1055.717771948377</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.3840821798905</v>
+        <v>1055.717771948377</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1797.037868444465</v>
+        <v>1855.314462232242</v>
       </c>
       <c r="C17" t="n">
-        <v>1502.718031117585</v>
+        <v>1560.994624905362</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371605912143</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274311</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513556</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="G17" t="n">
         <v>289.4530372098843</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5543,22 +5543,22 @@
         <v>3289.957832749798</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622764747553</v>
+        <v>3158.622764747552</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.734967634921</v>
+        <v>3158.622764747552</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.314759904882</v>
+        <v>3059.717329349241</v>
       </c>
       <c r="W17" t="n">
-        <v>2723.314759904882</v>
+        <v>2781.591353692659</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.491681257334</v>
+        <v>2482.768275045111</v>
       </c>
       <c r="Y17" t="n">
-        <v>2108.995028895054</v>
+        <v>2167.271622682832</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470836</v>
+        <v>569.1149231470837</v>
       </c>
       <c r="C19" t="n">
         <v>474.8214198327087</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339049</v>
+        <v>399.347460033905</v>
       </c>
       <c r="E19" t="n">
         <v>326.0770460650438</v>
@@ -5668,7 +5668,7 @@
         <v>89.19511400030609</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,13 +5695,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.106770459553</v>
+        <v>1849.061105831467</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063565899911</v>
+        <v>1732.017901271825</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939630082969</v>
+        <v>1584.893965454883</v>
       </c>
       <c r="U19" t="n">
         <v>1370.433778194059</v>
@@ -5710,13 +5710,13 @@
         <v>1190.391969601704</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782748</v>
+        <v>975.6174791782749</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937895</v>
+        <v>822.2706078937896</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637913</v>
+        <v>676.1207083637914</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1650.246960790129</v>
+        <v>1855.314462232242</v>
       </c>
       <c r="C20" t="n">
-        <v>1355.927123463249</v>
+        <v>1560.994624905362</v>
       </c>
       <c r="D20" t="n">
-        <v>1072.304104470031</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="E20" t="n">
-        <v>761.1585314853185</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="F20" t="n">
-        <v>424.8153063092429</v>
+        <v>629.8828077513559</v>
       </c>
       <c r="G20" t="n">
-        <v>84.38553576777119</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,52 +5750,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749799</v>
+        <v>3289.957832749798</v>
       </c>
       <c r="T20" t="n">
-        <v>3289.957832749799</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="U20" t="n">
-        <v>3111.070035637167</v>
+        <v>3059.717329349241</v>
       </c>
       <c r="V20" t="n">
-        <v>2854.649827907128</v>
+        <v>3059.717329349241</v>
       </c>
       <c r="W20" t="n">
-        <v>2576.523852250546</v>
+        <v>2781.591353692659</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.700773602998</v>
+        <v>2482.768275045111</v>
       </c>
       <c r="Y20" t="n">
-        <v>1962.204121240719</v>
+        <v>2167.271622682832</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1605877751695</v>
+        <v>569.1149231470837</v>
       </c>
       <c r="C22" t="n">
         <v>474.8214198327087</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3474600339049</v>
+        <v>399.347460033905</v>
       </c>
       <c r="E22" t="n">
         <v>326.0770460650438</v>
@@ -5899,10 +5899,10 @@
         <v>253.8297781806654</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689163</v>
+        <v>160.7696211689164</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030609</v>
+        <v>89.19511400030612</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5953,7 +5953,7 @@
         <v>885.3162725218754</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1663729918772</v>
+        <v>676.1207083637914</v>
       </c>
     </row>
     <row r="23">
@@ -6002,19 +6002,19 @@
         <v>2294.826563640613</v>
       </c>
       <c r="O23" t="n">
-        <v>2901.736699269704</v>
+        <v>2797.79903451995</v>
       </c>
       <c r="P23" t="n">
-        <v>3296.511065626882</v>
+        <v>3192.573400877128</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.797427382564</v>
+        <v>3609.856683056817</v>
       </c>
       <c r="R23" t="n">
         <v>3668.87374961362</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754246</v>
+        <v>3633.225760754247</v>
       </c>
       <c r="T23" t="n">
         <v>3501.890692752001</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352586</v>
+        <v>575.9802817071726</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7324430208837</v>
+        <v>481.6867783927977</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2584832220799</v>
+        <v>406.2128185939939</v>
       </c>
       <c r="E25" t="n">
         <v>332.9424046251328</v>
@@ -6139,7 +6139,7 @@
         <v>167.6349797290053</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039506</v>
+        <v>96.06047256039508</v>
       </c>
       <c r="I25" t="n">
         <v>73.3774749922724</v>
@@ -6184,13 +6184,13 @@
         <v>1260.302992789879</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52850236645</v>
+        <v>982.4828377383639</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819645</v>
+        <v>829.1359664538785</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519663</v>
+        <v>682.9860669238803</v>
       </c>
     </row>
     <row r="26">
@@ -6206,49 +6206,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>810.8729904741863</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.404136464983</v>
+        <v>1261.907203722595</v>
       </c>
       <c r="M26" t="n">
-        <v>1986.936041136908</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N26" t="n">
-        <v>2533.71485819569</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075027</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6269,7 +6269,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6364,34 +6364,34 @@
         <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982174</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,16 +6400,16 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226676</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6497,16 +6497,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913845</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6646,25 +6646,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,61 +6686,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398488</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668922</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1261.907203722595</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N32" t="n">
-        <v>2548.674958929623</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O32" t="n">
-        <v>3051.64742980896</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768668</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6838,34 +6838,34 @@
         <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302701</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,13 +6886,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.90370154678</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>810.8729904741867</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1261.907203722596</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>2240.457506552424</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N35" t="n">
-        <v>2787.236323611206</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>3290.208794490543</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
-        <v>3684.983160847722</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309627</v>
@@ -6971,16 +6971,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7099,46 +7099,46 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7181,16 +7181,16 @@
         <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1807.484051384558</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2787.236323611205</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603402</v>
@@ -7199,25 +7199,25 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="39">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,28 +7409,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.992678104633</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1928.524582776558</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.30339983534</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
@@ -7533,7 +7533,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7573,28 +7573,28 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570351</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,28 +7646,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>393.299453099171</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>727.1188267890175</v>
       </c>
       <c r="L44" t="n">
-        <v>1339.011402386887</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M44" t="n">
-        <v>1872.543307058812</v>
+        <v>1711.684944709351</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285459</v>
+        <v>2258.463761768133</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164796</v>
+        <v>2761.43623264747</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094416</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834459</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668918</v>
@@ -7770,7 +7770,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960323</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973152</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886098</v>
+        <v>164.445018788609</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592918</v>
+        <v>195.2094266592907</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419204</v>
+        <v>204.9000484419191</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526793</v>
+        <v>196.0014531526778</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740284</v>
+        <v>194.5125490740269</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201069</v>
+        <v>197.1426452201054</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561921</v>
+        <v>203.1061824561908</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567236</v>
+        <v>201.1836244567227</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.950252848521</v>
+        <v>116.9502528485205</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814166</v>
+        <v>120.9423422814159</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981508</v>
+        <v>115.8314587981498</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072893</v>
+        <v>115.6174569072881</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775618</v>
+        <v>104.1233201775606</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951454</v>
+        <v>117.6967333951443</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175971</v>
+        <v>113.9903546175962</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213396</v>
+        <v>126.622964021339</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218796</v>
+        <v>121.840546321879</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274374</v>
+        <v>125.1725778274368</v>
       </c>
       <c r="N10" t="n">
-        <v>114.259358846676</v>
+        <v>114.2593588466754</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419915</v>
+        <v>126.0552829419909</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773788</v>
+        <v>127.1165875773783</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>104.9875401512664</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>170.7039600242494</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>209.1187564935607</v>
       </c>
       <c r="L26" t="n">
-        <v>233.4533865158186</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>400.2032972882105</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>40.02214132148703</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>94.3725046490199</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>209.1187564935612</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>277.220684154414</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10829,19 +10829,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>52.18875040233411</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>19.4031160254645</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5185911550064</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>287.0017854473913</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707175</v>
+        <v>15.28796821707176</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085647</v>
+        <v>15.10714246085646</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>115.8743641162725</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>282.5813559617601</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734577</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412182</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194083</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5128464477651</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124323</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6018821377868</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.8856502856763</v>
+        <v>100.0020760621774</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8127254646765</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885164</v>
+        <v>267.6866481885163</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412177</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.03691185147602</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0740557600978</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>21.10175624944956</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.1146479709785</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>87.65181368056766</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532907</v>
+        <v>191.6635371532906</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>57.69382784989919</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>155.939624608411</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000164</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>203.0168264276919</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222235</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>79.18253809717764</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1412388.020704686</v>
+        <v>1412388.020704685</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1301483.387800619</v>
+        <v>1301483.387800618</v>
       </c>
     </row>
     <row r="8">
@@ -26317,25 +26317,25 @@
         <v>102409.6892941455</v>
       </c>
       <c r="D2" t="n">
-        <v>102411.4885104198</v>
+        <v>102411.4885104199</v>
       </c>
       <c r="E2" t="n">
-        <v>91192.71417661906</v>
+        <v>91192.714176619</v>
       </c>
       <c r="F2" t="n">
-        <v>91192.71417661897</v>
+        <v>91192.71417661909</v>
       </c>
       <c r="G2" t="n">
-        <v>99316.48772272372</v>
+        <v>99316.48772272373</v>
       </c>
       <c r="H2" t="n">
-        <v>99316.48772272374</v>
+        <v>99316.4877227237</v>
       </c>
       <c r="I2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330353</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330354</v>
@@ -26344,13 +26344,13 @@
         <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330352</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330352</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330352</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330352</v>
@@ -26369,34 +26369,34 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936175</v>
+        <v>38521.85015936362</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015504</v>
+        <v>1106215.961015502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487399</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071771</v>
+        <v>22820.53767071774</v>
       </c>
       <c r="J3" t="n">
         <v>25410.34822049027</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.109294874</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343062</v>
+        <v>422862.8573343055</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554739</v>
+        <v>38195.30988554745</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554739</v>
+        <v>38195.30988554745</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.1071440018</v>
+        <v>75223.10714400178</v>
       </c>
       <c r="H4" t="n">
         <v>75223.10714400178</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.13279157181</v>
+        <v>86759.13279157183</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409837</v>
       </c>
       <c r="K4" t="n">
         <v>82806.76150409839</v>
       </c>
       <c r="L4" t="n">
+        <v>82806.76150409837</v>
+      </c>
+      <c r="M4" t="n">
+        <v>82806.76150409839</v>
+      </c>
+      <c r="N4" t="n">
         <v>82806.76150409838</v>
       </c>
-      <c r="M4" t="n">
-        <v>82806.76150409844</v>
-      </c>
-      <c r="N4" t="n">
-        <v>82806.76150409837</v>
-      </c>
       <c r="O4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409841</v>
+        <v>82806.76150409842</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058916</v>
+        <v>34688.26308058921</v>
       </c>
       <c r="E5" t="n">
         <v>76569.57187911056</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367491.9373796183</v>
+        <v>-367496.3509574864</v>
       </c>
       <c r="C6" t="n">
-        <v>-369884.4687679082</v>
+        <v>-369888.8794066861</v>
       </c>
       <c r="D6" t="n">
-        <v>-393661.4820638373</v>
+        <v>-393665.8567182908</v>
       </c>
       <c r="E6" t="n">
-        <v>-1129788.128603543</v>
+        <v>-1130016.87874467</v>
       </c>
       <c r="F6" t="n">
-        <v>-23572.16758803898</v>
+        <v>-23800.91772916725</v>
       </c>
       <c r="G6" t="n">
-        <v>-94005.45335565115</v>
+        <v>-94071.72802585729</v>
       </c>
       <c r="H6" t="n">
-        <v>-56425.34406077706</v>
+        <v>-56491.61873098334</v>
       </c>
       <c r="I6" t="n">
-        <v>-92685.8463744208</v>
+        <v>-92685.84637442083</v>
       </c>
       <c r="J6" t="n">
-        <v>-94964.83016635943</v>
+        <v>-94964.83016635948</v>
       </c>
       <c r="K6" t="n">
-        <v>-69554.48194586911</v>
+        <v>-69554.48194586918</v>
       </c>
       <c r="L6" t="n">
-        <v>-107134.5912407432</v>
+        <v>-107134.5912407431</v>
       </c>
       <c r="M6" t="n">
-        <v>-276743.0502379424</v>
+        <v>-276743.0502379423</v>
       </c>
       <c r="N6" t="n">
-        <v>-69554.48194586924</v>
+        <v>-69554.48194586927</v>
       </c>
       <c r="O6" t="n">
-        <v>-69554.48194586918</v>
+        <v>-69554.48194586927</v>
       </c>
       <c r="P6" t="n">
-        <v>-69554.48194586929</v>
+        <v>-69554.48194586932</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179643</v>
+        <v>48.65426975179859</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26802,13 +26802,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034049</v>
+        <v>917.218437403405</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.9804068585541</v>
+        <v>44.98040685855628</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841502</v>
+        <v>1041.1224308415</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111202</v>
+        <v>85.81698200111214</v>
       </c>
       <c r="J4" t="n">
         <v>97.11802380520965</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661367</v>
+        <v>337.4716642661365</v>
       </c>
       <c r="I8" t="n">
-        <v>202.935211240331</v>
+        <v>202.9352112403307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128229</v>
+        <v>137.5825701128224</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868722</v>
+        <v>204.562947286872</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140269</v>
+        <v>222.2396322140268</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451317</v>
+        <v>85.79346287451301</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805417</v>
+        <v>93.66019412805387</v>
       </c>
       <c r="S9" t="n">
-        <v>169.7392953264901</v>
+        <v>169.73929532649</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28026,16 +28026,16 @@
         <v>167.9032421507096</v>
       </c>
       <c r="H10" t="n">
-        <v>161.4471089694518</v>
+        <v>161.4471089694517</v>
       </c>
       <c r="I10" t="n">
-        <v>152.8119778069477</v>
+        <v>152.8119778069476</v>
       </c>
       <c r="J10" t="n">
-        <v>87.1561595288085</v>
+        <v>87.15615952880822</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739174</v>
+        <v>12.07602350739128</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917312</v>
+        <v>78.8152485191728</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723763</v>
+        <v>173.3484074723761</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891986</v>
+        <v>222.4875777891985</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880415</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9211161988041</v>
+        <v>26.92111619880416</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739666</v>
+        <v>11.48104483559148</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U19" t="n">
-        <v>11.48104483559155</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C22" t="n">
-        <v>11.48104483559166</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739666</v>
+        <v>11.48104483559172</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E25" t="n">
-        <v>11.48104483559152</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739666</v>
+        <v>11.48104483559149</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739666</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859124</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30657,7 +30657,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q43" t="n">
         <v>46.97513661859256</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785785</v>
+        <v>0.1955950542785872</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630492</v>
+        <v>2.003137849630581</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330074903</v>
+        <v>7.540678330075239</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807651</v>
+        <v>16.60088573807725</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568874</v>
+        <v>24.88042438568985</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806679</v>
+        <v>30.86636652806817</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459347</v>
+        <v>34.34478007459499</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256247</v>
+        <v>34.90051452256403</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620157986</v>
+        <v>32.95556620158133</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907745</v>
+        <v>28.12681329907871</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772585</v>
+        <v>21.12206541772679</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832676</v>
+        <v>12.28654782832731</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373111</v>
+        <v>4.457122299373309</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501044776</v>
+        <v>0.8562173501045157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228627</v>
+        <v>0.01564760434228697</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208451</v>
+        <v>0.1046525802208498</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711847</v>
+        <v>1.010723603711892</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976901906</v>
+        <v>3.603169976902066</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818145727</v>
+        <v>9.887373818146168</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294235</v>
+        <v>16.8990966929431</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172342</v>
+        <v>22.72292098172443</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701472905</v>
+        <v>26.51657701473023</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577148</v>
+        <v>27.21839190577269</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929906</v>
+        <v>24.89951104930017</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673314</v>
+        <v>19.98405279673403</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468192</v>
+        <v>13.35881006468251</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024588967</v>
+        <v>6.497640024589256</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347714</v>
+        <v>1.943875777347801</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971783</v>
+        <v>0.4218233386971971</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424026</v>
+        <v>0.006885038172424332</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914109</v>
+        <v>0.08773720774914499</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878186</v>
+        <v>0.7800635379878533</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310535</v>
+        <v>2.638497120310652</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864275</v>
+        <v>6.203020587864551</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849112</v>
+        <v>10.19346831849157</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935867</v>
+        <v>13.04412995935925</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016763</v>
+        <v>13.75320612016825</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855721</v>
+        <v>13.42618561855781</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985133</v>
+        <v>12.40125550985188</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176884</v>
+        <v>10.61141647176931</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521261</v>
+        <v>7.346794732521587</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793197</v>
+        <v>3.944983904793373</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773667</v>
+        <v>1.529020247773735</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603826936</v>
+        <v>0.3748771603827104</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877225883</v>
+        <v>0.004785665877226096</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33989,10 +33989,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187032</v>
+        <v>72.49953281187038</v>
       </c>
       <c r="K13" t="n">
         <v>232.9687757431237</v>
@@ -35574,7 +35574,7 @@
         <v>346.6784883690023</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5544955922879</v>
+        <v>374.554495592288</v>
       </c>
       <c r="N13" t="n">
         <v>371.7780623663442</v>
@@ -35583,7 +35583,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8781873439145</v>
+        <v>261.8781873439146</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3153547366978</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187032</v>
+        <v>72.49953281187041</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431237</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6784883690023</v>
+        <v>346.6784883690024</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5544955922879</v>
+        <v>374.554495592288</v>
       </c>
       <c r="N16" t="n">
         <v>371.7780623663442</v>
@@ -35820,7 +35820,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8781873439145</v>
+        <v>261.8781873439146</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3153547366978</v>
@@ -35893,7 +35893,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>613.0405410394856</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>421.4982648279689</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>546.3100430489612</v>
       </c>
       <c r="L26" t="n">
-        <v>689.0435009081508</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597722</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637041</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>939.1244131184372</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>495.6122557138192</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>493.1344908683918</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>546.3100430489617</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,10 +37321,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737858</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37470,10 +37470,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120773</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37549,19 +37549,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>591.1098662325609</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37637,10 +37637,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>474.9932304177967</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,16 +37792,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>315.305592123719</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>742.5918998397235</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165969</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,16 +38181,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
